--- a/HGS/MELDUNGEN/CONFIG/MASTER/EXCEL_DATEN/DATA_DialogStruktur.xlsx
+++ b/HGS/MELDUNGEN/CONFIG/MASTER/EXCEL_DATEN/DATA_DialogStruktur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Testtools\HGS\MELDUNGEN\CONFIG\MASTER\EXCEL_DATEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A609CC-66C5-433B-98EA-D36F13E3B18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AA267D-85A7-4659-BA56-F3C31FBB6949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="1395" windowWidth="27330" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="510" windowWidth="29010" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialoge" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
   <si>
     <t>Titel</t>
   </si>
@@ -247,6 +247,87 @@
   </si>
   <si>
     <t>Abrechnungsfehler</t>
+  </si>
+  <si>
+    <t>T2Buttons</t>
+  </si>
+  <si>
+    <t>T2SpaltenAuswahl</t>
+  </si>
+  <si>
+    <t>Parameterdefinitionen</t>
+  </si>
+  <si>
+    <t>Labels</t>
+  </si>
+  <si>
+    <t>SubDlg</t>
+  </si>
+  <si>
+    <t>SubDlgTitel</t>
+  </si>
+  <si>
+    <t>SubDlgLabels</t>
+  </si>
+  <si>
+    <t>SubDlgTabellenTyp</t>
+  </si>
+  <si>
+    <t>SubDlgTButtons</t>
+  </si>
+  <si>
+    <t>SubDlgTSpaltenAuswahl</t>
+  </si>
+  <si>
+    <t>SubDlgT2Buttons</t>
+  </si>
+  <si>
+    <t>SubDlgT2SpaltenAuswahl</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>Verkaufsstatistik</t>
+  </si>
+  <si>
+    <t>Gerätenummer;Abrechnungsnr.;Abrechnungsbeginn;Abrechnungsende;Anzahl Verkäufe;Störbetrag;Gesamtumsatz</t>
+  </si>
+  <si>
+    <t>Baugruppen-Details</t>
+  </si>
+  <si>
+    <t>Baugruppentyp;Seriennummer;Baugruppenhersteller;Baugruppenquelle;Letzter Vorgang;Baugruppenkategorie;Geldspeichertyp</t>
+  </si>
+  <si>
+    <t>Parameter - Editor</t>
+  </si>
+  <si>
+    <t>ID;Version;Beschreibung;Erstellt am;Aktualisiert am</t>
+  </si>
+  <si>
+    <t>Monitoring-Details</t>
+  </si>
+  <si>
+    <t>Geldspeicherinhalt von Automat</t>
+  </si>
+  <si>
+    <t>Abrechnungsnr.;Zeit;Summe BNV;Summe MEK;Summe ZGS;Summe WGR</t>
+  </si>
+  <si>
+    <t>Ticketverfolgung-Details</t>
+  </si>
+  <si>
+    <t>Gerätenummer;Abrechnungsnummer;Transaktionsnummer;Barcode</t>
+  </si>
+  <si>
+    <t>Durchschnittliche Verfügbarkeit (%);Durchschnittliche Verfügbarkeit (xt);Gesamtzeit im Betrachtungszeitraum</t>
+  </si>
+  <si>
+    <t>Gesamtumsatz;Anteil Bar;Anteil Girokarte;Anteil Kreditkarte;Anzahl Produkte</t>
+  </si>
+  <si>
+    <t>Seriennr.;Beschreibung;Aktiv;Haltestelle;Position;Letzte Bedienung;Letzte Kommunikation;Letzter Verkauf</t>
   </si>
 </sst>
 </file>
@@ -575,25 +656,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="4" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="25" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -607,71 +691,104 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
       </c>
       <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
         <v>4</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -680,72 +797,73 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
       <c r="I5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>16</v>
@@ -756,26 +874,44 @@
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
       <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
         <v>4</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>8</v>
       </c>
-      <c r="K7" t="s">
+      <c r="N7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>88</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>16</v>
@@ -786,23 +922,23 @@
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -813,43 +949,44 @@
       <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
         <v>26</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>19</v>
@@ -858,20 +995,21 @@
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
+      <c r="E11" s="1"/>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>20</v>
@@ -880,20 +1018,21 @@
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
+      <c r="E12" s="1"/>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>21</v>
@@ -904,29 +1043,30 @@
       <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>23</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
       <c r="I13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
         <v>7</v>
       </c>
-      <c r="K13" t="s">
+      <c r="N13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>21</v>
@@ -937,29 +1077,30 @@
       <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
         <v>22</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>23</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
       <c r="I14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
         <v>15</v>
       </c>
-      <c r="K14" t="s">
+      <c r="N14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>24</v>
@@ -968,14 +1109,15 @@
       <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>25</v>
@@ -984,20 +1126,27 @@
       <c r="D16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
+      <c r="E16" s="1"/>
+      <c r="F16">
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>27</v>
@@ -1006,63 +1155,72 @@
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
         <v>28</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
       <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
         <v>4</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
+      <c r="E18" s="1"/>
+      <c r="F18">
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
+      <c r="E19" s="2"/>
+      <c r="F19">
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>31</v>
@@ -1071,20 +1229,21 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
+      <c r="E20" s="1"/>
+      <c r="F20">
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>32</v>
@@ -1093,40 +1252,59 @@
       <c r="D21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
+      <c r="E21" s="1"/>
+      <c r="F21">
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
         <v>4</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>90</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>34</v>
@@ -1135,537 +1313,702 @@
       <c r="D23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
+      <c r="E23" s="1"/>
+      <c r="F23">
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
       </c>
       <c r="I24">
         <v>3</v>
       </c>
       <c r="J24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>8</v>
+      </c>
+      <c r="O24" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>92</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25">
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>86</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26">
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>3</v>
+      </c>
+      <c r="T26">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27">
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
       </c>
       <c r="I28">
         <v>3</v>
       </c>
       <c r="J28">
-        <v>5</v>
-      </c>
-      <c r="K28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>8</v>
+      </c>
+      <c r="O28" t="s">
+        <v>86</v>
+      </c>
+      <c r="P28" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>100</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>3</v>
+      </c>
+      <c r="T28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="103.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30">
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>7</v>
+      </c>
+      <c r="O31" t="s">
+        <v>86</v>
+      </c>
+      <c r="P31" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>95</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
         <v>44</v>
       </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>4</v>
-      </c>
-      <c r="J32">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
       <c r="I33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>3</v>
-      </c>
-      <c r="J34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35">
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36">
+        <v>0</v>
       </c>
       <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
         <v>4</v>
       </c>
-      <c r="J36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="O37" t="s">
+        <v>86</v>
+      </c>
+      <c r="P37" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>97</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>2</v>
+      </c>
+      <c r="T37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-      <c r="F38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38">
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>16</v>
-      </c>
-      <c r="K38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39">
-        <v>3</v>
-      </c>
-      <c r="F39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39" t="s">
         <v>56</v>
       </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
       <c r="I39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>10</v>
-      </c>
-      <c r="K39" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39">
+        <v>16</v>
+      </c>
+      <c r="N39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40">
-        <v>3</v>
-      </c>
-      <c r="F40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
         <v>56</v>
       </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
       <c r="I40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40">
-        <v>8</v>
-      </c>
-      <c r="K40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>10</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>6</v>
+      </c>
+      <c r="N40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41" t="s">
+        <v>56</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>8</v>
+      </c>
+      <c r="N41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42">
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J42">
-        <v>14</v>
-      </c>
-      <c r="K42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="K42">
+        <v>7</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>14</v>
+      </c>
+      <c r="N43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
         <v>58</v>
       </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>2</v>
-      </c>
-      <c r="J43">
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2" t="s">
+    <row r="45" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>3</v>
-      </c>
-      <c r="J44">
+      <c r="E45" s="2"/>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
+    <row r="46" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="E46" s="1"/>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
         <v>23</v>
       </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45">
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
         <v>4</v>
       </c>
-      <c r="J45">
+      <c r="K46">
         <v>7</v>
       </c>
-      <c r="K45" t="s">
+      <c r="N46" t="s">
         <v>61</v>
       </c>
     </row>
